--- a/hotel_info.xlsx
+++ b/hotel_info.xlsx
@@ -1,41 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12137\OneDrive - California State University, Northridge\Documents\NetBeansProjects\hotelReservation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lissett\Downloads\hotelReservation_2\hotelReservation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E6265D-D74E-4BCE-B8CE-5961DA30FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221A1E54-21D9-4E99-8FC2-01EDC654ABEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{01D8516D-6CE2-4EA8-BA66-7DA32F16BBC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="141">
   <si>
     <t>firstName</t>
   </si>
@@ -58,12 +48,12 @@
     <t>checkOut</t>
   </si>
   <si>
+    <t>roomReserved</t>
+  </si>
+  <si>
     <t>confirmationNumber</t>
   </si>
   <si>
-    <t>roomReserved</t>
-  </si>
-  <si>
     <t>Margarita</t>
   </si>
   <si>
@@ -83,27 +73,403 @@
   </si>
   <si>
     <t>03/10/2022</t>
+  </si>
+  <si>
+    <t>summayah</t>
+  </si>
+  <si>
+    <t>Waseem</t>
+  </si>
+  <si>
+    <t>2093021</t>
+  </si>
+  <si>
+    <t>sidsjm@gmail</t>
+  </si>
+  <si>
+    <t>1/10/22</t>
+  </si>
+  <si>
+    <t>1/12/22</t>
+  </si>
+  <si>
+    <t>mfeikmf</t>
+  </si>
+  <si>
+    <t>dnkd</t>
+  </si>
+  <si>
+    <t>ssds</t>
+  </si>
+  <si>
+    <t>1938103</t>
+  </si>
+  <si>
+    <t>ccsd</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>ndiinc</t>
+  </si>
+  <si>
+    <t>ddknw</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>kdnik</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>fnkef</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>805-234-5231</t>
+  </si>
+  <si>
+    <t>simd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 12,2022  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 15,2022  </t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>sudm</t>
+  </si>
+  <si>
+    <t>ws</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>950-465-7282</t>
+  </si>
+  <si>
+    <t>sudmd</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>sudnwd</t>
+  </si>
+  <si>
+    <t>wwd</t>
+  </si>
+  <si>
+    <t>059-498-4393</t>
+  </si>
+  <si>
+    <t>siufnfn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 13,2022  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 14,2022  </t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>cgc</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>039-403-2484</t>
+  </si>
+  <si>
+    <t>siunf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 11,2022  </t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>disjifm</t>
+  </si>
+  <si>
+    <t>djiwn</t>
+  </si>
+  <si>
+    <t>028-408-0284</t>
+  </si>
+  <si>
+    <t>sjufns</t>
+  </si>
+  <si>
+    <t>sudn</t>
+  </si>
+  <si>
+    <t>qas</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>308-493-2974</t>
+  </si>
+  <si>
+    <t>susfnfsv</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>818-112-2342</t>
+  </si>
+  <si>
+    <t>hohu@mail.com</t>
+  </si>
+  <si>
+    <t>joe</t>
+  </si>
+  <si>
+    <t>doe</t>
+  </si>
+  <si>
+    <t>123-456-7889</t>
+  </si>
+  <si>
+    <t>incdsd</t>
+  </si>
+  <si>
+    <t>cardName</t>
+  </si>
+  <si>
+    <t>cardNumber</t>
+  </si>
+  <si>
+    <t>cardExpiration</t>
+  </si>
+  <si>
+    <t>cardCvc</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>141-431-4134</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 20,2022  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 22,2022  </t>
+  </si>
+  <si>
+    <t>lemon orange</t>
+  </si>
+  <si>
+    <t>1234 5678 9001 2334</t>
+  </si>
+  <si>
+    <t>09/12</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>lion king</t>
+  </si>
+  <si>
+    <t>1234 5678 9009 0909</t>
+  </si>
+  <si>
+    <t>1231 2312 3213 1231</t>
+  </si>
+  <si>
+    <t>12/41</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>131-231-2312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 23,2022  </t>
+  </si>
+  <si>
+    <t>Room Selection</t>
+  </si>
+  <si>
+    <t>gduigaius</t>
+  </si>
+  <si>
+    <t>uigdwgd</t>
+  </si>
+  <si>
+    <t>213-231-2312</t>
+  </si>
+  <si>
+    <t>jksdbfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 21,2022  </t>
+  </si>
+  <si>
+    <t>giusgd</t>
+  </si>
+  <si>
+    <t>ifguigf</t>
+  </si>
+  <si>
+    <t>321-232-1421</t>
+  </si>
+  <si>
+    <t>fuiwgefu</t>
+  </si>
+  <si>
+    <t>hfu duefi</t>
+  </si>
+  <si>
+    <t>2134 1341 3413 4134</t>
+  </si>
+  <si>
+    <t>12/31</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>hgsd</t>
+  </si>
+  <si>
+    <t>igdigew</t>
+  </si>
+  <si>
+    <t>231-413-4341</t>
+  </si>
+  <si>
+    <t>ufuif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 24,2022  </t>
+  </si>
+  <si>
+    <t>jkbcd</t>
+  </si>
+  <si>
+    <t>bdksjb</t>
+  </si>
+  <si>
+    <t>123-141-4134</t>
+  </si>
+  <si>
+    <t>bdkjsbf</t>
+  </si>
+  <si>
+    <t>jbfbsd uihs uihdf</t>
+  </si>
+  <si>
+    <t>1341 3413 4135 1351</t>
+  </si>
+  <si>
+    <t>12/21</t>
+  </si>
+  <si>
+    <t>jdfb</t>
+  </si>
+  <si>
+    <t>kjfbsjb</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>413-413-4134</t>
+  </si>
+  <si>
+    <t>fjsnj</t>
+  </si>
+  <si>
+    <t>jhv</t>
+  </si>
+  <si>
+    <t>usguf</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>341-341-3414</t>
+  </si>
+  <si>
+    <t>jkbvkjs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -442,25 +808,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B05D61E-DF94-4ACE-9B0F-FEC75548EEF2}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7109375"/>
+    <col min="2" max="2" customWidth="true" width="18.42578125"/>
+    <col min="3" max="3" customWidth="true" width="6.42578125"/>
+    <col min="4" max="4" customWidth="true" width="15.140625"/>
+    <col min="5" max="5" customWidth="true" width="22.140625"/>
+    <col min="6" max="6" customWidth="true" width="12.0"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375"/>
+    <col min="8" max="8" customWidth="true" width="7.7109375"/>
+    <col min="9" max="9" customWidth="true" width="7.85546875"/>
+    <col min="10" max="10" customWidth="true" width="14.85546875"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375"/>
+    <col min="12" max="12" customWidth="true" width="14.140625"/>
+    <col min="13" max="13" customWidth="true" width="8.5703125"/>
+    <col min="14" max="15" customWidth="true" width="17.28515625"/>
+    <col min="16" max="1025" customWidth="true" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,13 +857,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -511,9 +900,607 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="J23" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="J26" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L26" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" t="n">
+        <v>27.0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>